--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H2">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I2">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J2">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N2">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q2">
-        <v>151.282681638187</v>
+        <v>196.4139990711857</v>
       </c>
       <c r="R2">
-        <v>151.282681638187</v>
+        <v>1767.725991640672</v>
       </c>
       <c r="S2">
-        <v>0.02754671318429993</v>
+        <v>0.03144676056539995</v>
       </c>
       <c r="T2">
-        <v>0.02754671318429993</v>
+        <v>0.03144676056539993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H3">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I3">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J3">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N3">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q3">
-        <v>1296.693549279337</v>
+        <v>1448.033833847029</v>
       </c>
       <c r="R3">
-        <v>1296.693549279337</v>
+        <v>13032.30450462326</v>
       </c>
       <c r="S3">
-        <v>0.2361119257216642</v>
+        <v>0.2318366994151072</v>
       </c>
       <c r="T3">
-        <v>0.2361119257216642</v>
+        <v>0.2318366994151072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H4">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I4">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J4">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N4">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q4">
-        <v>3107.604503509449</v>
+        <v>3555.84493037767</v>
       </c>
       <c r="R4">
-        <v>3107.604503509449</v>
+        <v>32002.60437339903</v>
       </c>
       <c r="S4">
-        <v>0.5658565079719291</v>
+        <v>0.5693066923032879</v>
       </c>
       <c r="T4">
-        <v>0.5658565079719291</v>
+        <v>0.5693066923032878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H5">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I5">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J5">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N5">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q5">
-        <v>21.49696686272269</v>
+        <v>25.83937747880533</v>
       </c>
       <c r="R5">
-        <v>21.49696686272269</v>
+        <v>232.554397309248</v>
       </c>
       <c r="S5">
-        <v>0.003914332916943384</v>
+        <v>0.004137000013122708</v>
       </c>
       <c r="T5">
-        <v>0.003914332916943384</v>
+        <v>0.004137000013122706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H6">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I6">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J6">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N6">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q6">
-        <v>184.2575631137407</v>
+        <v>190.4970776614267</v>
       </c>
       <c r="R6">
-        <v>184.2575631137407</v>
+        <v>1714.47369895284</v>
       </c>
       <c r="S6">
-        <v>0.03355103299445377</v>
+        <v>0.03049943495858539</v>
       </c>
       <c r="T6">
-        <v>0.03355103299445377</v>
+        <v>0.03049943495858539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H7">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I7">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J7">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N7">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q7">
-        <v>441.5843922846463</v>
+        <v>467.791602668936</v>
       </c>
       <c r="R7">
-        <v>441.5843922846463</v>
+        <v>4210.124424020424</v>
       </c>
       <c r="S7">
-        <v>0.08040707944363959</v>
+        <v>0.07489552981558732</v>
       </c>
       <c r="T7">
-        <v>0.08040707944363959</v>
+        <v>0.07489552981558731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H8">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I8">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J8">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N8">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q8">
-        <v>9.5951787793162</v>
+        <v>13.65380843462844</v>
       </c>
       <c r="R8">
-        <v>9.5951787793162</v>
+        <v>122.884275911656</v>
       </c>
       <c r="S8">
-        <v>0.001747163885011313</v>
+        <v>0.002186035856303625</v>
       </c>
       <c r="T8">
-        <v>0.001747163885011313</v>
+        <v>0.002186035856303624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H9">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I9">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J9">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N9">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q9">
-        <v>82.24342861054011</v>
+        <v>100.6607302315672</v>
       </c>
       <c r="R9">
-        <v>82.24342861054011</v>
+        <v>905.946572084105</v>
       </c>
       <c r="S9">
-        <v>0.01497551547008092</v>
+        <v>0.01611623355208588</v>
       </c>
       <c r="T9">
-        <v>0.01497551547008092</v>
+        <v>0.01611623355208588</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H10">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I10">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J10">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N10">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q10">
-        <v>197.1013500269327</v>
+        <v>247.1861768112836</v>
       </c>
       <c r="R10">
-        <v>197.1013500269327</v>
+        <v>2224.675591301553</v>
       </c>
       <c r="S10">
-        <v>0.03588972841197773</v>
+        <v>0.03957561352052016</v>
       </c>
       <c r="T10">
-        <v>0.03588972841197773</v>
+        <v>0.03957561352052015</v>
       </c>
     </row>
   </sheetData>
